--- a/old/COVID-19_20200323.xlsx
+++ b/old/COVID-19_20200323.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\tmp\parse_COVID-19\old\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4CB531-220C-4C3B-8097-AA6180D18DFB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD882CA1-1112-4752-B5A1-47D7923D8846}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Friuli Venezia Giulia" sheetId="1" r:id="rId1"/>
@@ -224,7 +224,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -259,7 +259,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -314,9 +314,37 @@
               <a:rPr lang="it-IT" sz="1800" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>deceduti(i) / deceduti(i-10)</a:t>
+              <a:t>LOMBARDIA</a:t>
             </a:r>
             <a:endParaRPr lang="it-IT">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>totale deceduti(i) / totale deceduti(i-10)</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>total deceased(i) / total deceased (i-10)</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT" sz="1400">
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
@@ -576,6 +604,121 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Lombardia!$M$20:$M$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Lombardia!$W$20:$W$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>16.181818181818183</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.232876712328768</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.518518518518519</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.64935064935065</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.3370786516853936</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.5105105105105103</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.4465811965811968</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0162074554294973</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.645161290322581</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.2426966292134836</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C381-40B2-B69E-3C53DF36AC28}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -614,13 +757,27 @@
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
                   <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
+                      <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      </a:sysClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -631,6 +788,44 @@
                   <a:rPr lang="it-IT" sz="1400"/>
                   <a:t>Giorni trascorsi dal 13/3/2020</a:t>
                 </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1200" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Days after March 13, 2020</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT" sz="1200">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -646,13 +841,27 @@
             <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
                 <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
+                    <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    </a:sysClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1374,7 +1583,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{946A6D0C-2D9E-4A64-9F48-50B14521F1E0}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="121" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7967,8 +8176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:W48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W33" sqref="W33:W35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
